--- a/Report/AA/df_ALL_T.xlsx
+++ b/Report/AA/df_ALL_T.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,12 +590,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DBC,BIL,CASH</t>
+          <t>DBC,BIL</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>DBC,BIL,CASH</t>
+          <t>DBC,BIL</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -648,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>28.6</v>
+        <v>33.3</v>
       </c>
       <c r="G4" t="n">
-        <v>28.6</v>
+        <v>33.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -671,6 +671,44 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CAGR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MDD</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Report/AA/df_ALL_T.xlsx
+++ b/Report/AA/df_ALL_T.xlsx
@@ -654,7 +654,7 @@
         <v>33.3</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
